--- a/教学文档/平时成绩情况登记.xlsx
+++ b/教学文档/平时成绩情况登记.xlsx
@@ -1622,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="Q71" sqref="Q71"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2327,7 +2327,9 @@
       <c r="Q17" s="5">
         <v>1</v>
       </c>
-      <c r="R17" s="5"/>
+      <c r="R17" s="5">
+        <v>1</v>
+      </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -2370,7 +2372,9 @@
       <c r="Q18" s="5">
         <v>1</v>
       </c>
-      <c r="R18" s="5"/>
+      <c r="R18" s="5">
+        <v>1</v>
+      </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -2413,7 +2417,9 @@
       <c r="Q19" s="5">
         <v>1</v>
       </c>
-      <c r="R19" s="5"/>
+      <c r="R19" s="5">
+        <v>1</v>
+      </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -2458,7 +2464,9 @@
       <c r="Q20" s="5">
         <v>1</v>
       </c>
-      <c r="R20" s="5"/>
+      <c r="R20" s="5">
+        <v>1</v>
+      </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -2503,7 +2511,9 @@
       <c r="Q21" s="5">
         <v>1</v>
       </c>
-      <c r="R21" s="5"/>
+      <c r="R21" s="5">
+        <v>1</v>
+      </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -2548,7 +2558,9 @@
       <c r="Q22" s="5">
         <v>1</v>
       </c>
-      <c r="R22" s="5"/>
+      <c r="R22" s="5">
+        <v>1</v>
+      </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -2593,7 +2605,9 @@
       <c r="Q23" s="5">
         <v>1</v>
       </c>
-      <c r="R23" s="5"/>
+      <c r="R23" s="5">
+        <v>1</v>
+      </c>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -2638,7 +2652,9 @@
       <c r="Q24" s="5">
         <v>1</v>
       </c>
-      <c r="R24" s="5"/>
+      <c r="R24" s="5">
+        <v>1</v>
+      </c>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -2683,7 +2699,9 @@
       <c r="Q25" s="5">
         <v>1</v>
       </c>
-      <c r="R25" s="5"/>
+      <c r="R25" s="5">
+        <v>1</v>
+      </c>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -2728,7 +2746,9 @@
       <c r="Q26" s="5">
         <v>1</v>
       </c>
-      <c r="R26" s="5"/>
+      <c r="R26" s="5">
+        <v>1</v>
+      </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -2771,7 +2791,9 @@
       <c r="Q27" s="5">
         <v>1</v>
       </c>
-      <c r="R27" s="5"/>
+      <c r="R27" s="5">
+        <v>1</v>
+      </c>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -2816,7 +2838,9 @@
       <c r="Q28" s="5">
         <v>1</v>
       </c>
-      <c r="R28" s="5"/>
+      <c r="R28" s="5">
+        <v>1</v>
+      </c>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -2859,7 +2883,9 @@
         <v>331</v>
       </c>
       <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
+      <c r="R29" s="5">
+        <v>1</v>
+      </c>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -2902,7 +2928,9 @@
       <c r="Q30" s="5">
         <v>1</v>
       </c>
-      <c r="R30" s="5"/>
+      <c r="R30" s="5">
+        <v>1</v>
+      </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -2947,7 +2975,9 @@
       <c r="Q31" s="5">
         <v>1</v>
       </c>
-      <c r="R31" s="5"/>
+      <c r="R31" s="5">
+        <v>1</v>
+      </c>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -2992,7 +3022,9 @@
       <c r="Q32" s="5">
         <v>1</v>
       </c>
-      <c r="R32" s="5"/>
+      <c r="R32" s="5">
+        <v>1</v>
+      </c>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -3037,7 +3069,9 @@
       <c r="Q33" s="5">
         <v>1</v>
       </c>
-      <c r="R33" s="5"/>
+      <c r="R33" s="5">
+        <v>1</v>
+      </c>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -3080,7 +3114,9 @@
       <c r="Q34" s="5">
         <v>1</v>
       </c>
-      <c r="R34" s="5"/>
+      <c r="R34" s="5">
+        <v>1</v>
+      </c>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -3123,7 +3159,9 @@
       <c r="Q35" s="5">
         <v>1</v>
       </c>
-      <c r="R35" s="5"/>
+      <c r="R35" s="5">
+        <v>1</v>
+      </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -3166,7 +3204,9 @@
       <c r="Q36" s="5">
         <v>1</v>
       </c>
-      <c r="R36" s="5"/>
+      <c r="R36" s="5">
+        <v>1</v>
+      </c>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -3209,7 +3249,9 @@
       <c r="Q37" s="5">
         <v>1</v>
       </c>
-      <c r="R37" s="5"/>
+      <c r="R37" s="5">
+        <v>1</v>
+      </c>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -3254,7 +3296,9 @@
       <c r="Q38" s="5">
         <v>1</v>
       </c>
-      <c r="R38" s="5"/>
+      <c r="R38" s="5">
+        <v>1</v>
+      </c>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -3299,7 +3343,9 @@
       <c r="Q39" s="5">
         <v>1</v>
       </c>
-      <c r="R39" s="5"/>
+      <c r="R39" s="5">
+        <v>1</v>
+      </c>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -3344,7 +3390,9 @@
       <c r="Q40" s="5">
         <v>1</v>
       </c>
-      <c r="R40" s="5"/>
+      <c r="R40" s="5">
+        <v>1</v>
+      </c>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -3389,7 +3437,9 @@
       <c r="Q41" s="5">
         <v>1</v>
       </c>
-      <c r="R41" s="5"/>
+      <c r="R41" s="5">
+        <v>1</v>
+      </c>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -3434,7 +3484,9 @@
       <c r="Q42" s="5">
         <v>1</v>
       </c>
-      <c r="R42" s="5"/>
+      <c r="R42" s="5">
+        <v>1</v>
+      </c>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -3479,7 +3531,9 @@
       <c r="Q43" s="5">
         <v>1</v>
       </c>
-      <c r="R43" s="5"/>
+      <c r="R43" s="5">
+        <v>1</v>
+      </c>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -3524,7 +3578,9 @@
       <c r="Q44" s="5">
         <v>1</v>
       </c>
-      <c r="R44" s="5"/>
+      <c r="R44" s="5">
+        <v>-1</v>
+      </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
@@ -3569,7 +3625,9 @@
       <c r="Q45" s="5">
         <v>1</v>
       </c>
-      <c r="R45" s="5"/>
+      <c r="R45" s="5">
+        <v>-1</v>
+      </c>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
@@ -3614,7 +3672,9 @@
       <c r="Q46" s="5">
         <v>1</v>
       </c>
-      <c r="R46" s="5"/>
+      <c r="R46" s="5">
+        <v>1</v>
+      </c>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
@@ -3659,7 +3719,9 @@
       <c r="Q47" s="5">
         <v>1</v>
       </c>
-      <c r="R47" s="5"/>
+      <c r="R47" s="5">
+        <v>1</v>
+      </c>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
@@ -3704,7 +3766,9 @@
       <c r="Q48" s="5">
         <v>1</v>
       </c>
-      <c r="R48" s="5"/>
+      <c r="R48" s="5">
+        <v>1</v>
+      </c>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
@@ -3749,7 +3813,9 @@
       <c r="Q49" s="5">
         <v>1</v>
       </c>
-      <c r="R49" s="5"/>
+      <c r="R49" s="5">
+        <v>1</v>
+      </c>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
@@ -3794,7 +3860,9 @@
       <c r="Q50" s="5">
         <v>1</v>
       </c>
-      <c r="R50" s="5"/>
+      <c r="R50" s="5">
+        <v>1</v>
+      </c>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
@@ -3839,7 +3907,9 @@
       <c r="Q51" s="5">
         <v>1</v>
       </c>
-      <c r="R51" s="5"/>
+      <c r="R51" s="5">
+        <v>1</v>
+      </c>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
@@ -3884,7 +3954,9 @@
       <c r="Q52" s="5">
         <v>1</v>
       </c>
-      <c r="R52" s="5"/>
+      <c r="R52" s="5">
+        <v>1</v>
+      </c>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
@@ -3929,7 +4001,9 @@
       <c r="Q53" s="5">
         <v>1</v>
       </c>
-      <c r="R53" s="5"/>
+      <c r="R53" s="5">
+        <v>1</v>
+      </c>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
@@ -3974,7 +4048,9 @@
       <c r="Q54" s="5">
         <v>1</v>
       </c>
-      <c r="R54" s="5"/>
+      <c r="R54" s="5">
+        <v>1</v>
+      </c>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
@@ -4019,7 +4095,9 @@
       <c r="Q55" s="5">
         <v>1</v>
       </c>
-      <c r="R55" s="5"/>
+      <c r="R55" s="5">
+        <v>1</v>
+      </c>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
@@ -4064,7 +4142,9 @@
       <c r="Q56" s="5">
         <v>1</v>
       </c>
-      <c r="R56" s="5"/>
+      <c r="R56" s="5">
+        <v>1</v>
+      </c>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
@@ -4109,7 +4189,9 @@
       <c r="Q57" s="5">
         <v>1</v>
       </c>
-      <c r="R57" s="5"/>
+      <c r="R57" s="5">
+        <v>1</v>
+      </c>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
@@ -4154,7 +4236,9 @@
       <c r="Q58" s="5">
         <v>1</v>
       </c>
-      <c r="R58" s="5"/>
+      <c r="R58" s="5">
+        <v>1</v>
+      </c>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
@@ -4199,7 +4283,9 @@
       <c r="Q59" s="5">
         <v>1</v>
       </c>
-      <c r="R59" s="5"/>
+      <c r="R59" s="5">
+        <v>1</v>
+      </c>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
@@ -4289,7 +4375,9 @@
       <c r="Q61" s="5">
         <v>1</v>
       </c>
-      <c r="R61" s="5"/>
+      <c r="R61" s="5">
+        <v>1</v>
+      </c>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
@@ -4334,7 +4422,9 @@
       <c r="Q62" s="5">
         <v>1</v>
       </c>
-      <c r="R62" s="5"/>
+      <c r="R62" s="5">
+        <v>1</v>
+      </c>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
@@ -4379,7 +4469,9 @@
       <c r="Q63" s="5">
         <v>1</v>
       </c>
-      <c r="R63" s="5"/>
+      <c r="R63" s="5">
+        <v>1</v>
+      </c>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
@@ -4424,7 +4516,9 @@
       <c r="Q64" s="5">
         <v>1</v>
       </c>
-      <c r="R64" s="5"/>
+      <c r="R64" s="5">
+        <v>1</v>
+      </c>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
@@ -4469,7 +4563,9 @@
       <c r="Q65" s="5">
         <v>1</v>
       </c>
-      <c r="R65" s="5"/>
+      <c r="R65" s="5">
+        <v>1</v>
+      </c>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
@@ -4514,7 +4610,9 @@
       <c r="Q66" s="5">
         <v>1</v>
       </c>
-      <c r="R66" s="5"/>
+      <c r="R66" s="5">
+        <v>1</v>
+      </c>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
@@ -4604,7 +4702,9 @@
       <c r="Q68" s="5">
         <v>1</v>
       </c>
-      <c r="R68" s="5"/>
+      <c r="R68" s="5">
+        <v>1</v>
+      </c>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
@@ -4649,7 +4749,9 @@
       <c r="Q69" s="5">
         <v>1</v>
       </c>
-      <c r="R69" s="5"/>
+      <c r="R69" s="5">
+        <v>1</v>
+      </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
@@ -4694,7 +4796,9 @@
       <c r="Q70" s="5">
         <v>1</v>
       </c>
-      <c r="R70" s="5"/>
+      <c r="R70" s="5">
+        <v>1</v>
+      </c>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
@@ -4739,7 +4843,9 @@
       <c r="Q71" s="5">
         <v>1</v>
       </c>
-      <c r="R71" s="5"/>
+      <c r="R71" s="5">
+        <v>1</v>
+      </c>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
@@ -4784,7 +4890,9 @@
       <c r="Q72" s="5">
         <v>1</v>
       </c>
-      <c r="R72" s="5"/>
+      <c r="R72" s="5">
+        <v>1</v>
+      </c>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
@@ -4829,7 +4937,9 @@
       <c r="Q73" s="5">
         <v>1</v>
       </c>
-      <c r="R73" s="5"/>
+      <c r="R73" s="5">
+        <v>1</v>
+      </c>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
@@ -4874,7 +4984,9 @@
       <c r="Q74" s="5">
         <v>1</v>
       </c>
-      <c r="R74" s="5"/>
+      <c r="R74" s="5">
+        <v>1</v>
+      </c>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
@@ -4919,7 +5031,9 @@
       <c r="Q75" s="5">
         <v>1</v>
       </c>
-      <c r="R75" s="5"/>
+      <c r="R75" s="5">
+        <v>1</v>
+      </c>
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
@@ -4964,7 +5078,9 @@
       <c r="Q76" s="5">
         <v>1</v>
       </c>
-      <c r="R76" s="5"/>
+      <c r="R76" s="5">
+        <v>1</v>
+      </c>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
@@ -5009,7 +5125,9 @@
       <c r="Q77" s="5">
         <v>1</v>
       </c>
-      <c r="R77" s="5"/>
+      <c r="R77" s="5">
+        <v>1</v>
+      </c>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
@@ -5054,7 +5172,9 @@
       <c r="Q78" s="5">
         <v>1</v>
       </c>
-      <c r="R78" s="5"/>
+      <c r="R78" s="5">
+        <v>1</v>
+      </c>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
@@ -5099,7 +5219,9 @@
       <c r="Q79" s="5">
         <v>1</v>
       </c>
-      <c r="R79" s="5"/>
+      <c r="R79" s="5">
+        <v>1</v>
+      </c>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
@@ -5144,7 +5266,9 @@
       <c r="Q80" s="5">
         <v>1</v>
       </c>
-      <c r="R80" s="5"/>
+      <c r="R80" s="5">
+        <v>1</v>
+      </c>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
@@ -5189,7 +5313,9 @@
       <c r="Q81" s="5">
         <v>1</v>
       </c>
-      <c r="R81" s="5"/>
+      <c r="R81" s="5">
+        <v>1</v>
+      </c>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
@@ -5234,7 +5360,9 @@
       <c r="Q82" s="5">
         <v>1</v>
       </c>
-      <c r="R82" s="5"/>
+      <c r="R82" s="5">
+        <v>1</v>
+      </c>
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
@@ -5279,7 +5407,9 @@
       <c r="Q83" s="5">
         <v>1</v>
       </c>
-      <c r="R83" s="5"/>
+      <c r="R83" s="5">
+        <v>1</v>
+      </c>
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
@@ -5324,7 +5454,9 @@
       <c r="Q84" s="5">
         <v>1</v>
       </c>
-      <c r="R84" s="5"/>
+      <c r="R84" s="5">
+        <v>1</v>
+      </c>
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
@@ -5369,7 +5501,9 @@
       <c r="Q85" s="5">
         <v>1</v>
       </c>
-      <c r="R85" s="5"/>
+      <c r="R85" s="5">
+        <v>1</v>
+      </c>
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
@@ -5412,7 +5546,9 @@
       <c r="Q86" s="5">
         <v>1</v>
       </c>
-      <c r="R86" s="5"/>
+      <c r="R86" s="5">
+        <v>1</v>
+      </c>
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
@@ -5502,7 +5638,9 @@
       <c r="Q88" s="5">
         <v>1</v>
       </c>
-      <c r="R88" s="5"/>
+      <c r="R88" s="5">
+        <v>1</v>
+      </c>
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
@@ -5590,7 +5728,9 @@
       <c r="Q90" s="5">
         <v>1</v>
       </c>
-      <c r="R90" s="5"/>
+      <c r="R90" s="5">
+        <v>1</v>
+      </c>
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
       <c r="U90" s="5"/>
@@ -5633,7 +5773,9 @@
       <c r="Q91" s="5">
         <v>1</v>
       </c>
-      <c r="R91" s="5"/>
+      <c r="R91" s="5">
+        <v>1</v>
+      </c>
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
@@ -5678,7 +5820,9 @@
       <c r="Q92" s="5">
         <v>1</v>
       </c>
-      <c r="R92" s="5"/>
+      <c r="R92" s="5">
+        <v>1</v>
+      </c>
       <c r="S92" s="5"/>
       <c r="T92" s="5"/>
       <c r="U92" s="5"/>
@@ -5723,7 +5867,9 @@
       <c r="Q93" s="5">
         <v>1</v>
       </c>
-      <c r="R93" s="5"/>
+      <c r="R93" s="5">
+        <v>1</v>
+      </c>
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
@@ -5768,7 +5914,9 @@
       <c r="Q94" s="5">
         <v>1</v>
       </c>
-      <c r="R94" s="5"/>
+      <c r="R94" s="5">
+        <v>1</v>
+      </c>
       <c r="S94" s="5"/>
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
@@ -5813,7 +5961,9 @@
       <c r="Q95" s="5">
         <v>1</v>
       </c>
-      <c r="R95" s="5"/>
+      <c r="R95" s="5">
+        <v>1</v>
+      </c>
       <c r="S95" s="5"/>
       <c r="T95" s="5"/>
       <c r="U95" s="5"/>
@@ -5858,7 +6008,9 @@
       <c r="Q96" s="5">
         <v>1</v>
       </c>
-      <c r="R96" s="5"/>
+      <c r="R96" s="5">
+        <v>1</v>
+      </c>
       <c r="S96" s="5"/>
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
@@ -5903,7 +6055,9 @@
       <c r="Q97" s="5">
         <v>1</v>
       </c>
-      <c r="R97" s="5"/>
+      <c r="R97" s="5">
+        <v>1</v>
+      </c>
       <c r="S97" s="5"/>
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
@@ -5946,7 +6100,9 @@
       <c r="Q98" s="5">
         <v>1</v>
       </c>
-      <c r="R98" s="5"/>
+      <c r="R98" s="5">
+        <v>1</v>
+      </c>
       <c r="S98" s="5"/>
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
@@ -5991,7 +6147,9 @@
       <c r="Q99" s="5">
         <v>1</v>
       </c>
-      <c r="R99" s="5"/>
+      <c r="R99" s="5">
+        <v>1</v>
+      </c>
       <c r="S99" s="5"/>
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
@@ -6034,7 +6192,9 @@
       <c r="Q100" s="5">
         <v>1</v>
       </c>
-      <c r="R100" s="5"/>
+      <c r="R100" s="5">
+        <v>1</v>
+      </c>
       <c r="S100" s="5"/>
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
@@ -6079,7 +6239,9 @@
       <c r="Q101" s="5">
         <v>1</v>
       </c>
-      <c r="R101" s="5"/>
+      <c r="R101" s="5">
+        <v>1</v>
+      </c>
       <c r="S101" s="5"/>
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
@@ -6122,7 +6284,9 @@
       <c r="Q102" s="5">
         <v>1</v>
       </c>
-      <c r="R102" s="5"/>
+      <c r="R102" s="5">
+        <v>1</v>
+      </c>
       <c r="S102" s="5"/>
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
@@ -6167,7 +6331,9 @@
       <c r="Q103" s="5">
         <v>1</v>
       </c>
-      <c r="R103" s="5"/>
+      <c r="R103" s="5">
+        <v>1</v>
+      </c>
       <c r="S103" s="5"/>
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
@@ -6212,7 +6378,9 @@
       <c r="Q104" s="5">
         <v>1</v>
       </c>
-      <c r="R104" s="5"/>
+      <c r="R104" s="5">
+        <v>1</v>
+      </c>
       <c r="S104" s="5"/>
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
